--- a/code/excels/npc_abilities_custom.xlsx
+++ b/code/excels/npc_abilities_custom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="113">
   <si>
     <t>版本</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>abilities/courier_abilities.kv</t>
+  </si>
+  <si>
+    <t>abilities/common_abilities.kv</t>
   </si>
   <si>
     <t>building/building_ability_tower.kv</t>
@@ -361,10 +364,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -383,67 +386,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,6 +402,66 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,6 +498,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -511,13 +521,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -541,187 +544,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,6 +735,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -746,17 +758,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,9 +779,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,7 +807,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,8 +815,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,145 +841,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1864,10 +1867,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV23"/>
+  <dimension ref="A1:AV24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2487,107 +2490,112 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>109</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" spans="3:14">
       <c r="C8" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
     </row>
-    <row r="20" spans="2:22">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+    <row r="9" spans="3:14">
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
     </row>
-    <row r="22" spans="2:21">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="U22" s="5"/>
+    <row r="22" spans="2:22">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
     </row>
-    <row r="23" spans="2:17">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+    <row r="23" spans="2:21">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/excels/npc_abilities_custom.xlsx
+++ b/code/excels/npc_abilities_custom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="114">
   <si>
     <t>版本</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>abilities/common_abilities.kv</t>
+  </si>
+  <si>
+    <t>abilities/imba_abilities.kv</t>
   </si>
   <si>
     <t>building/building_ability_tower.kv</t>
@@ -364,10 +367,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -386,22 +389,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,7 +410,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,30 +434,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,23 +497,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,35 +526,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -544,43 +547,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,139 +679,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,15 +738,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -763,6 +757,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -773,17 +800,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,32 +822,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,10 +844,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,133 +856,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1867,10 +1870,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV24"/>
+  <dimension ref="A1:AV25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2495,107 +2498,112 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>110</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="3:14">
       <c r="C9" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
     </row>
-    <row r="21" spans="2:22">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+    <row r="10" spans="3:14">
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
     </row>
-    <row r="23" spans="2:21">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="U23" s="5"/>
+    <row r="23" spans="2:22">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
     </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+    <row r="24" spans="2:21">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/excels/npc_abilities_custom.xlsx
+++ b/code/excels/npc_abilities_custom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="115">
   <si>
     <t>版本</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>abilities/common_abilities.kv</t>
+  </si>
+  <si>
+    <t>abilities/boss_abilities.kv</t>
   </si>
   <si>
     <t>abilities/imba_abilities.kv</t>
@@ -1870,10 +1873,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV25"/>
+  <dimension ref="A1:AV26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2503,107 +2506,112 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>111</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="10" spans="3:14">
       <c r="C10" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
     </row>
-    <row r="22" spans="2:22">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+    <row r="11" spans="3:14">
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
     </row>
-    <row r="24" spans="2:21">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="U24" s="5"/>
+    <row r="24" spans="2:22">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
     </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+    <row r="25" spans="2:21">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
